--- a/Code/Results/Cases/Case_4_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011989359934085</v>
+        <v>1.039432910895759</v>
       </c>
       <c r="D2">
-        <v>1.028918821366628</v>
+        <v>1.045305475662108</v>
       </c>
       <c r="E2">
-        <v>1.020086171427391</v>
+        <v>1.043087205207078</v>
       </c>
       <c r="F2">
-        <v>1.029923387021634</v>
+        <v>1.05295446749078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046808256801515</v>
+        <v>1.039910959385147</v>
       </c>
       <c r="J2">
-        <v>1.033817290688544</v>
+        <v>1.044524955302397</v>
       </c>
       <c r="K2">
-        <v>1.039989452599825</v>
+        <v>1.048074088137139</v>
       </c>
       <c r="L2">
-        <v>1.031272590482394</v>
+        <v>1.045862060540546</v>
       </c>
       <c r="M2">
-        <v>1.040981006744992</v>
+        <v>1.055701772141627</v>
       </c>
       <c r="N2">
-        <v>1.035285429821828</v>
+        <v>1.046008300547614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016301826723965</v>
+        <v>1.040349853320488</v>
       </c>
       <c r="D3">
-        <v>1.032157124445427</v>
+        <v>1.046019592391631</v>
       </c>
       <c r="E3">
-        <v>1.023907882122317</v>
+        <v>1.043952670828574</v>
       </c>
       <c r="F3">
-        <v>1.033881043259683</v>
+        <v>1.05385442162665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048063624234069</v>
+        <v>1.040130142079999</v>
       </c>
       <c r="J3">
-        <v>1.036357741661467</v>
+        <v>1.045087264202358</v>
       </c>
       <c r="K3">
-        <v>1.04239443998958</v>
+        <v>1.04859987197324</v>
       </c>
       <c r="L3">
-        <v>1.034243729689688</v>
+        <v>1.046538347188166</v>
       </c>
       <c r="M3">
-        <v>1.044098013630899</v>
+        <v>1.056414451656517</v>
       </c>
       <c r="N3">
-        <v>1.037829488526521</v>
+        <v>1.04657140799071</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019038436923402</v>
+        <v>1.04094373301865</v>
       </c>
       <c r="D4">
-        <v>1.034215366686457</v>
+        <v>1.046482163576676</v>
       </c>
       <c r="E4">
-        <v>1.026338371092745</v>
+        <v>1.044513574766649</v>
       </c>
       <c r="F4">
-        <v>1.036398363722264</v>
+        <v>1.054437705180361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048852016138091</v>
+        <v>1.040271053598669</v>
       </c>
       <c r="J4">
-        <v>1.037967364593264</v>
+        <v>1.045451035189886</v>
       </c>
       <c r="K4">
-        <v>1.043917661693207</v>
+        <v>1.048939905810231</v>
       </c>
       <c r="L4">
-        <v>1.036128977082268</v>
+        <v>1.046976198462143</v>
       </c>
       <c r="M4">
-        <v>1.046076476670906</v>
+        <v>1.056875919927471</v>
       </c>
       <c r="N4">
-        <v>1.039441397307507</v>
+        <v>1.046935695574766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020176451312695</v>
+        <v>1.041193532113462</v>
       </c>
       <c r="D5">
-        <v>1.035072023180088</v>
+        <v>1.046676744305646</v>
       </c>
       <c r="E5">
-        <v>1.027350325186382</v>
+        <v>1.044749590310581</v>
       </c>
       <c r="F5">
-        <v>1.037446558156792</v>
+        <v>1.054683144185353</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049177857377792</v>
+        <v>1.040330073317881</v>
       </c>
       <c r="J5">
-        <v>1.038636092948261</v>
+        <v>1.045603944188256</v>
       </c>
       <c r="K5">
-        <v>1.044550349260588</v>
+        <v>1.049082811028869</v>
       </c>
       <c r="L5">
-        <v>1.036912877779883</v>
+        <v>1.047160329420044</v>
       </c>
       <c r="M5">
-        <v>1.046899292301113</v>
+        <v>1.057069995746915</v>
       </c>
       <c r="N5">
-        <v>1.040111075333472</v>
+        <v>1.047088821721452</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020366810718511</v>
+        <v>1.041235482190803</v>
       </c>
       <c r="D6">
-        <v>1.03521536112979</v>
+        <v>1.046709422013871</v>
       </c>
       <c r="E6">
-        <v>1.027519670011137</v>
+        <v>1.044789230719667</v>
       </c>
       <c r="F6">
-        <v>1.037621972662268</v>
+        <v>1.054724367716756</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049232242812673</v>
+        <v>1.040339970100786</v>
       </c>
       <c r="J6">
-        <v>1.038747915401777</v>
+        <v>1.045629617059289</v>
       </c>
       <c r="K6">
-        <v>1.044656136364396</v>
+        <v>1.049106802773183</v>
       </c>
       <c r="L6">
-        <v>1.037043998031771</v>
+        <v>1.047191249200052</v>
       </c>
       <c r="M6">
-        <v>1.047036930745073</v>
+        <v>1.057102586264639</v>
       </c>
       <c r="N6">
-        <v>1.040223056587698</v>
+        <v>1.047114531050907</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019053691512692</v>
+        <v>1.040947070328915</v>
       </c>
       <c r="D7">
-        <v>1.034226846931327</v>
+        <v>1.046484763120733</v>
       </c>
       <c r="E7">
-        <v>1.026351931044931</v>
+        <v>1.044516727588606</v>
       </c>
       <c r="F7">
-        <v>1.036412408945107</v>
+        <v>1.054440983859935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048856391880047</v>
+        <v>1.040271843086195</v>
       </c>
       <c r="J7">
-        <v>1.037976331136506</v>
+        <v>1.045453078448593</v>
       </c>
       <c r="K7">
-        <v>1.043926145571153</v>
+        <v>1.048941815494958</v>
       </c>
       <c r="L7">
-        <v>1.03613948527339</v>
+        <v>1.046978658601543</v>
       </c>
       <c r="M7">
-        <v>1.046087505908119</v>
+        <v>1.056878512886762</v>
       </c>
       <c r="N7">
-        <v>1.039450376584269</v>
+        <v>1.046937741735134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013458194841256</v>
+        <v>1.03974267990948</v>
       </c>
       <c r="D8">
-        <v>1.03002107898274</v>
+        <v>1.045546712423987</v>
       </c>
       <c r="E8">
-        <v>1.021386722120135</v>
+        <v>1.043379508226576</v>
       </c>
       <c r="F8">
-        <v>1.031270120889979</v>
+        <v>1.053258412929061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047237543920466</v>
+        <v>1.039985222169234</v>
       </c>
       <c r="J8">
-        <v>1.034683078128559</v>
+        <v>1.044715006252269</v>
       </c>
       <c r="K8">
-        <v>1.040809189200796</v>
+        <v>1.048251816580774</v>
       </c>
       <c r="L8">
-        <v>1.03228458442716</v>
+        <v>1.046090562566523</v>
       </c>
       <c r="M8">
-        <v>1.042042544173286</v>
+        <v>1.055942559092838</v>
       </c>
       <c r="N8">
-        <v>1.03615244677931</v>
+        <v>1.046198621391634</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003165272318949</v>
+        <v>1.037624705934727</v>
       </c>
       <c r="D9">
-        <v>1.022312799891129</v>
+        <v>1.043897564879569</v>
       </c>
       <c r="E9">
-        <v>1.012296937069766</v>
+        <v>1.041382463331824</v>
       </c>
       <c r="F9">
-        <v>1.021859243114356</v>
+        <v>1.051181940199761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044195770219781</v>
+        <v>1.039473182783698</v>
       </c>
       <c r="J9">
-        <v>1.028606749668558</v>
+        <v>1.043413859288899</v>
       </c>
       <c r="K9">
-        <v>1.035053950739999</v>
+        <v>1.047034593199967</v>
       </c>
       <c r="L9">
-        <v>1.025193606533495</v>
+        <v>1.044527582218009</v>
       </c>
       <c r="M9">
-        <v>1.034607352345048</v>
+        <v>1.054295775113598</v>
       </c>
       <c r="N9">
-        <v>1.03006748923593</v>
+        <v>1.044895626650332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.995981763671157</v>
+        <v>1.036215695154769</v>
       </c>
       <c r="D10">
-        <v>1.016955521925952</v>
+        <v>1.042800787987931</v>
       </c>
       <c r="E10">
-        <v>1.005985100364349</v>
+        <v>1.040055815003823</v>
       </c>
       <c r="F10">
-        <v>1.015326722291694</v>
+        <v>1.049802671863046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042031852434798</v>
+        <v>1.039127167384224</v>
       </c>
       <c r="J10">
-        <v>1.024355719284961</v>
+        <v>1.042546107887317</v>
       </c>
       <c r="K10">
-        <v>1.031025241981023</v>
+        <v>1.046222262832804</v>
       </c>
       <c r="L10">
-        <v>1.020247126331753</v>
+        <v>1.043486984942126</v>
       </c>
       <c r="M10">
-        <v>1.029424654392738</v>
+        <v>1.053199669284627</v>
       </c>
       <c r="N10">
-        <v>1.025810421901589</v>
+        <v>1.044026642942227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9927876159242557</v>
+        <v>1.035606297329724</v>
       </c>
       <c r="D11">
-        <v>1.014579491221915</v>
+        <v>1.042326519648274</v>
       </c>
       <c r="E11">
-        <v>1.003186703016286</v>
+        <v>1.039482498491985</v>
       </c>
       <c r="F11">
-        <v>1.012431071572212</v>
+        <v>1.049206649908066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041060438933569</v>
+        <v>1.038976241889744</v>
       </c>
       <c r="J11">
-        <v>1.022463547376757</v>
+        <v>1.042170299129316</v>
       </c>
       <c r="K11">
-        <v>1.029231599476418</v>
+        <v>1.045870327110386</v>
       </c>
       <c r="L11">
-        <v>1.018048771972865</v>
+        <v>1.043036739676363</v>
       </c>
       <c r="M11">
-        <v>1.027122303004627</v>
+        <v>1.052725474914016</v>
       </c>
       <c r="N11">
-        <v>1.02391556289224</v>
+        <v>1.043650300492684</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9915879285518848</v>
+        <v>1.035380048117596</v>
       </c>
       <c r="D12">
-        <v>1.013688062752079</v>
+        <v>1.042150453397509</v>
       </c>
       <c r="E12">
-        <v>1.002136932837291</v>
+        <v>1.039269714608582</v>
       </c>
       <c r="F12">
-        <v>1.011344911368907</v>
+        <v>1.048985444208391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040694245123536</v>
+        <v>1.038920016961678</v>
       </c>
       <c r="J12">
-        <v>1.021752619020492</v>
+        <v>1.042030698040169</v>
       </c>
       <c r="K12">
-        <v>1.028557637083044</v>
+        <v>1.045739574834906</v>
       </c>
       <c r="L12">
-        <v>1.017223306782638</v>
+        <v>1.042869550860836</v>
       </c>
       <c r="M12">
-        <v>1.026257941258862</v>
+        <v>1.052549403423109</v>
       </c>
       <c r="N12">
-        <v>1.023203624936166</v>
+        <v>1.043510501153978</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9918458759365505</v>
+        <v>1.035428574423778</v>
       </c>
       <c r="D13">
-        <v>1.013879685162579</v>
+        <v>1.042188215741737</v>
       </c>
       <c r="E13">
-        <v>1.002362587617132</v>
+        <v>1.039315349694061</v>
       </c>
       <c r="F13">
-        <v>1.011578384142388</v>
+        <v>1.049032885258032</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040773041119646</v>
+        <v>1.038932084833564</v>
       </c>
       <c r="J13">
-        <v>1.021905487793388</v>
+        <v>1.042060643337586</v>
       </c>
       <c r="K13">
-        <v>1.028702559421224</v>
+        <v>1.045767622877239</v>
       </c>
       <c r="L13">
-        <v>1.017400781428913</v>
+        <v>1.042905411042131</v>
       </c>
       <c r="M13">
-        <v>1.026443771615676</v>
+        <v>1.052587168374569</v>
       </c>
       <c r="N13">
-        <v>1.023356710800253</v>
+        <v>1.043540488977152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9926887235038704</v>
+        <v>1.035587593283954</v>
       </c>
       <c r="D14">
-        <v>1.014505988752973</v>
+        <v>1.042311963946733</v>
       </c>
       <c r="E14">
-        <v>1.003100142264603</v>
+        <v>1.039464906204808</v>
       </c>
       <c r="F14">
-        <v>1.012341508297233</v>
+        <v>1.04918836122579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041030279913855</v>
+        <v>1.038971597671708</v>
       </c>
       <c r="J14">
-        <v>1.022404949056421</v>
+        <v>1.042158759837014</v>
       </c>
       <c r="K14">
-        <v>1.029176049104147</v>
+        <v>1.045859519644972</v>
       </c>
       <c r="L14">
-        <v>1.017980722757059</v>
+        <v>1.043022918722337</v>
       </c>
       <c r="M14">
-        <v>1.027051044102299</v>
+        <v>1.052710919447704</v>
       </c>
       <c r="N14">
-        <v>1.023856881355568</v>
+        <v>1.043638744813263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9932062545823681</v>
+        <v>1.035685584433254</v>
       </c>
       <c r="D15">
-        <v>1.014890687768216</v>
+        <v>1.042388222347138</v>
       </c>
       <c r="E15">
-        <v>1.003553190750953</v>
+        <v>1.039557075663026</v>
       </c>
       <c r="F15">
-        <v>1.012810275443313</v>
+        <v>1.049284179448623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041188055893222</v>
+        <v>1.038995921057177</v>
       </c>
       <c r="J15">
-        <v>1.022711600204329</v>
+        <v>1.042219211491113</v>
       </c>
       <c r="K15">
-        <v>1.029466747901038</v>
+        <v>1.045916136640781</v>
       </c>
       <c r="L15">
-        <v>1.018336851884477</v>
+        <v>1.043095326051902</v>
       </c>
       <c r="M15">
-        <v>1.027423977114704</v>
+        <v>1.052787175274998</v>
       </c>
       <c r="N15">
-        <v>1.024163967983279</v>
+        <v>1.043699282315645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996191930116097</v>
+        <v>1.036256154002982</v>
       </c>
       <c r="D16">
-        <v>1.017111991016598</v>
+        <v>1.042832277295427</v>
       </c>
       <c r="E16">
-        <v>1.006169401907861</v>
+        <v>1.040093888087106</v>
       </c>
       <c r="F16">
-        <v>1.015517441563428</v>
+        <v>1.049842253510154</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042095580260991</v>
+        <v>1.039137160715291</v>
       </c>
       <c r="J16">
-        <v>1.024480182184951</v>
+        <v>1.042571047760305</v>
       </c>
       <c r="K16">
-        <v>1.031143215810389</v>
+        <v>1.046245615707699</v>
       </c>
       <c r="L16">
-        <v>1.020391799111847</v>
+        <v>1.043516873508789</v>
       </c>
       <c r="M16">
-        <v>1.029576192170093</v>
+        <v>1.053231149104597</v>
       </c>
       <c r="N16">
-        <v>1.025935061553173</v>
+        <v>1.044051618232696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9980419113841903</v>
+        <v>1.036614248945385</v>
       </c>
       <c r="D17">
-        <v>1.018490004687594</v>
+        <v>1.043110994505087</v>
       </c>
       <c r="E17">
-        <v>1.007792644194562</v>
+        <v>1.040430920175554</v>
       </c>
       <c r="F17">
-        <v>1.017197275863184</v>
+        <v>1.050192643761945</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042655495936636</v>
+        <v>1.039225462907619</v>
       </c>
       <c r="J17">
-        <v>1.02557554456666</v>
+        <v>1.04279172823486</v>
       </c>
       <c r="K17">
-        <v>1.032181422275802</v>
+        <v>1.046452238752638</v>
       </c>
       <c r="L17">
-        <v>1.021665405919822</v>
+        <v>1.043781391031142</v>
       </c>
       <c r="M17">
-        <v>1.030910346881886</v>
+        <v>1.053509757316436</v>
       </c>
       <c r="N17">
-        <v>1.027031979475104</v>
+        <v>1.044272612098836</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9991129517188828</v>
+        <v>1.036823188398317</v>
       </c>
       <c r="D18">
-        <v>1.019288374016382</v>
+        <v>1.043273627507065</v>
       </c>
       <c r="E18">
-        <v>1.00873318631936</v>
+        <v>1.040627614313304</v>
       </c>
       <c r="F18">
-        <v>1.018170664310359</v>
+        <v>1.050397137143368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042978777860342</v>
+        <v>1.03927686205098</v>
       </c>
       <c r="J18">
-        <v>1.026209512606083</v>
+        <v>1.042920440919469</v>
       </c>
       <c r="K18">
-        <v>1.032782268571412</v>
+        <v>1.046572739948579</v>
       </c>
       <c r="L18">
-        <v>1.022402857284876</v>
+        <v>1.043935712371921</v>
       </c>
       <c r="M18">
-        <v>1.031682950215577</v>
+        <v>1.053672305854028</v>
       </c>
       <c r="N18">
-        <v>1.02766684782186</v>
+        <v>1.044401507570221</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9994768077508366</v>
+        <v>1.036894442975979</v>
       </c>
       <c r="D19">
-        <v>1.019559692883932</v>
+        <v>1.043329091623932</v>
       </c>
       <c r="E19">
-        <v>1.009052838612446</v>
+        <v>1.040694700378358</v>
       </c>
       <c r="F19">
-        <v>1.01850148905738</v>
+        <v>1.050466883844854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043088453391461</v>
+        <v>1.03929436982869</v>
       </c>
       <c r="J19">
-        <v>1.026424852316877</v>
+        <v>1.042964327484319</v>
       </c>
       <c r="K19">
-        <v>1.032986350505011</v>
+        <v>1.046613824566931</v>
       </c>
       <c r="L19">
-        <v>1.022653401531486</v>
+        <v>1.043988337478521</v>
       </c>
       <c r="M19">
-        <v>1.031945452754642</v>
+        <v>1.053727737633083</v>
       </c>
       <c r="N19">
-        <v>1.027882493339743</v>
+        <v>1.044445456459028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9978442604199326</v>
+        <v>1.036575821629625</v>
       </c>
       <c r="D20">
-        <v>1.01834271855508</v>
+        <v>1.043081084365797</v>
       </c>
       <c r="E20">
-        <v>1.007619137503384</v>
+        <v>1.040394748534675</v>
       </c>
       <c r="F20">
-        <v>1.017017714306345</v>
+        <v>1.050155038124454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042595765761453</v>
+        <v>1.039215999881322</v>
       </c>
       <c r="J20">
-        <v>1.025458535884171</v>
+        <v>1.04276805197356</v>
       </c>
       <c r="K20">
-        <v>1.032070523310941</v>
+        <v>1.046430071964369</v>
       </c>
       <c r="L20">
-        <v>1.021529323663683</v>
+        <v>1.043753007408628</v>
       </c>
       <c r="M20">
-        <v>1.030767785505312</v>
+        <v>1.05347986103335</v>
       </c>
       <c r="N20">
-        <v>1.026914804626865</v>
+        <v>1.04424890221453</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9924408969817272</v>
+        <v>1.035540763195073</v>
       </c>
       <c r="D21">
-        <v>1.01432180607011</v>
+        <v>1.042275520464023</v>
       </c>
       <c r="E21">
-        <v>1.002883239931862</v>
+        <v>1.039420860796723</v>
       </c>
       <c r="F21">
-        <v>1.012117083809947</v>
+        <v>1.049142572353417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040954679309594</v>
+        <v>1.0389599666616</v>
       </c>
       <c r="J21">
-        <v>1.022258096552541</v>
+        <v>1.042129867213101</v>
       </c>
       <c r="K21">
-        <v>1.02903683419806</v>
+        <v>1.045832459092841</v>
       </c>
       <c r="L21">
-        <v>1.017810193563565</v>
+        <v>1.04298831418522</v>
       </c>
       <c r="M21">
-        <v>1.026872474028814</v>
+        <v>1.052674476024887</v>
       </c>
       <c r="N21">
-        <v>1.023709820304288</v>
+        <v>1.04360981115851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9889666266371926</v>
+        <v>1.034890607877822</v>
       </c>
       <c r="D22">
-        <v>1.011742188624081</v>
+        <v>1.041769598933639</v>
       </c>
       <c r="E22">
-        <v>0.9998456058164736</v>
+        <v>1.038809531301152</v>
       </c>
       <c r="F22">
-        <v>1.008974331978761</v>
+        <v>1.048507056759879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039891701480001</v>
+        <v>1.038798037068248</v>
       </c>
       <c r="J22">
-        <v>1.020198841929582</v>
+        <v>1.041728563661911</v>
       </c>
       <c r="K22">
-        <v>1.0270845650319</v>
+        <v>1.045456556551681</v>
       </c>
       <c r="L22">
-        <v>1.015420121906381</v>
+        <v>1.042507824531738</v>
       </c>
       <c r="M22">
-        <v>1.024370077629525</v>
+        <v>1.052168477605636</v>
       </c>
       <c r="N22">
-        <v>1.021647641303564</v>
+        <v>1.043207937710247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9908159346016049</v>
+        <v>1.035235207700756</v>
       </c>
       <c r="D23">
-        <v>1.01311471802883</v>
+        <v>1.042037743130911</v>
       </c>
       <c r="E23">
-        <v>1.001461776643243</v>
+        <v>1.039133514072534</v>
       </c>
       <c r="F23">
-        <v>1.010646377813694</v>
+        <v>1.048843854432909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040458228701223</v>
+        <v>1.038883968997018</v>
       </c>
       <c r="J23">
-        <v>1.021295075013467</v>
+        <v>1.041941306799709</v>
       </c>
       <c r="K23">
-        <v>1.028123870154455</v>
+        <v>1.04565584437437</v>
       </c>
       <c r="L23">
-        <v>1.016692189467477</v>
+        <v>1.042762512032154</v>
       </c>
       <c r="M23">
-        <v>1.025701841278537</v>
+        <v>1.052436680570117</v>
       </c>
       <c r="N23">
-        <v>1.022745431164169</v>
+        <v>1.043420982967703</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9979335951257681</v>
+        <v>1.036593185067262</v>
       </c>
       <c r="D24">
-        <v>1.018409287485308</v>
+        <v>1.043094599278972</v>
       </c>
       <c r="E24">
-        <v>1.007697557041069</v>
+        <v>1.040411092605501</v>
       </c>
       <c r="F24">
-        <v>1.017098870279655</v>
+        <v>1.050172030132985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042622765463237</v>
+        <v>1.039220276143251</v>
       </c>
       <c r="J24">
-        <v>1.025511422305869</v>
+        <v>1.042778750277107</v>
       </c>
       <c r="K24">
-        <v>1.032120648347736</v>
+        <v>1.046440088239199</v>
       </c>
       <c r="L24">
-        <v>1.0215908301034</v>
+        <v>1.043765832644835</v>
       </c>
       <c r="M24">
-        <v>1.030832220088637</v>
+        <v>1.053493369750013</v>
       </c>
       <c r="N24">
-        <v>1.026967766153347</v>
+        <v>1.044259615710895</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005880568288725</v>
+        <v>1.038171734318072</v>
       </c>
       <c r="D25">
-        <v>1.024342642454821</v>
+        <v>1.044323447568319</v>
       </c>
       <c r="E25">
-        <v>1.014689502696351</v>
+        <v>1.041897922759267</v>
       </c>
       <c r="F25">
-        <v>1.024335945761753</v>
+        <v>1.051717875435767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04500543985634</v>
+        <v>1.039606380423832</v>
       </c>
       <c r="J25">
-        <v>1.030211635700148</v>
+        <v>1.043750297989019</v>
       </c>
       <c r="K25">
-        <v>1.036574467551265</v>
+        <v>1.047349428823373</v>
       </c>
       <c r="L25">
-        <v>1.027063983846993</v>
+        <v>1.044931410519958</v>
       </c>
       <c r="M25">
-        <v>1.036567868640743</v>
+        <v>1.054721205528858</v>
       </c>
       <c r="N25">
-        <v>1.031674654389768</v>
+        <v>1.045232543131996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039432910895759</v>
+        <v>1.011989359934086</v>
       </c>
       <c r="D2">
-        <v>1.045305475662108</v>
+        <v>1.028918821366629</v>
       </c>
       <c r="E2">
-        <v>1.043087205207078</v>
+        <v>1.020086171427392</v>
       </c>
       <c r="F2">
-        <v>1.05295446749078</v>
+        <v>1.029923387021635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039910959385147</v>
+        <v>1.046808256801515</v>
       </c>
       <c r="J2">
-        <v>1.044524955302397</v>
+        <v>1.033817290688545</v>
       </c>
       <c r="K2">
-        <v>1.048074088137139</v>
+        <v>1.039989452599825</v>
       </c>
       <c r="L2">
-        <v>1.045862060540546</v>
+        <v>1.031272590482395</v>
       </c>
       <c r="M2">
-        <v>1.055701772141627</v>
+        <v>1.040981006744993</v>
       </c>
       <c r="N2">
-        <v>1.046008300547614</v>
+        <v>1.035285429821829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040349853320488</v>
+        <v>1.016301826723965</v>
       </c>
       <c r="D3">
-        <v>1.046019592391631</v>
+        <v>1.032157124445427</v>
       </c>
       <c r="E3">
-        <v>1.043952670828574</v>
+        <v>1.023907882122317</v>
       </c>
       <c r="F3">
-        <v>1.05385442162665</v>
+        <v>1.033881043259683</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040130142079999</v>
+        <v>1.048063624234069</v>
       </c>
       <c r="J3">
-        <v>1.045087264202358</v>
+        <v>1.036357741661467</v>
       </c>
       <c r="K3">
-        <v>1.04859987197324</v>
+        <v>1.04239443998958</v>
       </c>
       <c r="L3">
-        <v>1.046538347188166</v>
+        <v>1.034243729689688</v>
       </c>
       <c r="M3">
-        <v>1.056414451656517</v>
+        <v>1.044098013630899</v>
       </c>
       <c r="N3">
-        <v>1.04657140799071</v>
+        <v>1.03782948852652</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04094373301865</v>
+        <v>1.019038436923402</v>
       </c>
       <c r="D4">
-        <v>1.046482163576676</v>
+        <v>1.034215366686457</v>
       </c>
       <c r="E4">
-        <v>1.044513574766649</v>
+        <v>1.026338371092744</v>
       </c>
       <c r="F4">
-        <v>1.054437705180361</v>
+        <v>1.036398363722264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040271053598669</v>
+        <v>1.048852016138091</v>
       </c>
       <c r="J4">
-        <v>1.045451035189886</v>
+        <v>1.037967364593263</v>
       </c>
       <c r="K4">
-        <v>1.048939905810231</v>
+        <v>1.043917661693207</v>
       </c>
       <c r="L4">
-        <v>1.046976198462143</v>
+        <v>1.036128977082267</v>
       </c>
       <c r="M4">
-        <v>1.056875919927471</v>
+        <v>1.046076476670905</v>
       </c>
       <c r="N4">
-        <v>1.046935695574766</v>
+        <v>1.039441397307507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041193532113462</v>
+        <v>1.020176451312695</v>
       </c>
       <c r="D5">
-        <v>1.046676744305646</v>
+        <v>1.035072023180089</v>
       </c>
       <c r="E5">
-        <v>1.044749590310581</v>
+        <v>1.027350325186382</v>
       </c>
       <c r="F5">
-        <v>1.054683144185353</v>
+        <v>1.037446558156793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040330073317881</v>
+        <v>1.049177857377792</v>
       </c>
       <c r="J5">
-        <v>1.045603944188256</v>
+        <v>1.038636092948261</v>
       </c>
       <c r="K5">
-        <v>1.049082811028869</v>
+        <v>1.044550349260588</v>
       </c>
       <c r="L5">
-        <v>1.047160329420044</v>
+        <v>1.036912877779884</v>
       </c>
       <c r="M5">
-        <v>1.057069995746915</v>
+        <v>1.046899292301114</v>
       </c>
       <c r="N5">
-        <v>1.047088821721452</v>
+        <v>1.040111075333472</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041235482190803</v>
+        <v>1.02036681071851</v>
       </c>
       <c r="D6">
-        <v>1.046709422013871</v>
+        <v>1.035215361129789</v>
       </c>
       <c r="E6">
-        <v>1.044789230719667</v>
+        <v>1.027519670011136</v>
       </c>
       <c r="F6">
-        <v>1.054724367716756</v>
+        <v>1.037621972662267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040339970100786</v>
+        <v>1.049232242812672</v>
       </c>
       <c r="J6">
-        <v>1.045629617059289</v>
+        <v>1.038747915401776</v>
       </c>
       <c r="K6">
-        <v>1.049106802773183</v>
+        <v>1.044656136364395</v>
       </c>
       <c r="L6">
-        <v>1.047191249200052</v>
+        <v>1.03704399803177</v>
       </c>
       <c r="M6">
-        <v>1.057102586264639</v>
+        <v>1.047036930745072</v>
       </c>
       <c r="N6">
-        <v>1.047114531050907</v>
+        <v>1.040223056587698</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040947070328915</v>
+        <v>1.019053691512692</v>
       </c>
       <c r="D7">
-        <v>1.046484763120733</v>
+        <v>1.034226846931326</v>
       </c>
       <c r="E7">
-        <v>1.044516727588606</v>
+        <v>1.02635193104493</v>
       </c>
       <c r="F7">
-        <v>1.054440983859935</v>
+        <v>1.036412408945107</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040271843086195</v>
+        <v>1.048856391880046</v>
       </c>
       <c r="J7">
-        <v>1.045453078448593</v>
+        <v>1.037976331136506</v>
       </c>
       <c r="K7">
-        <v>1.048941815494958</v>
+        <v>1.043926145571153</v>
       </c>
       <c r="L7">
-        <v>1.046978658601543</v>
+        <v>1.036139485273389</v>
       </c>
       <c r="M7">
-        <v>1.056878512886762</v>
+        <v>1.046087505908118</v>
       </c>
       <c r="N7">
-        <v>1.046937741735134</v>
+        <v>1.039450376584269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03974267990948</v>
+        <v>1.013458194841257</v>
       </c>
       <c r="D8">
-        <v>1.045546712423987</v>
+        <v>1.030021078982742</v>
       </c>
       <c r="E8">
-        <v>1.043379508226576</v>
+        <v>1.021386722120137</v>
       </c>
       <c r="F8">
-        <v>1.053258412929061</v>
+        <v>1.03127012088998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039985222169234</v>
+        <v>1.047237543920467</v>
       </c>
       <c r="J8">
-        <v>1.044715006252269</v>
+        <v>1.034683078128561</v>
       </c>
       <c r="K8">
-        <v>1.048251816580774</v>
+        <v>1.040809189200797</v>
       </c>
       <c r="L8">
-        <v>1.046090562566523</v>
+        <v>1.032284584427162</v>
       </c>
       <c r="M8">
-        <v>1.055942559092838</v>
+        <v>1.042042544173287</v>
       </c>
       <c r="N8">
-        <v>1.046198621391634</v>
+        <v>1.036152446779311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037624705934727</v>
+        <v>1.003165272318948</v>
       </c>
       <c r="D9">
-        <v>1.043897564879569</v>
+        <v>1.022312799891129</v>
       </c>
       <c r="E9">
-        <v>1.041382463331824</v>
+        <v>1.012296937069765</v>
       </c>
       <c r="F9">
-        <v>1.051181940199761</v>
+        <v>1.021859243114356</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039473182783698</v>
+        <v>1.044195770219781</v>
       </c>
       <c r="J9">
-        <v>1.043413859288899</v>
+        <v>1.028606749668557</v>
       </c>
       <c r="K9">
-        <v>1.047034593199967</v>
+        <v>1.035053950739999</v>
       </c>
       <c r="L9">
-        <v>1.044527582218009</v>
+        <v>1.025193606533494</v>
       </c>
       <c r="M9">
-        <v>1.054295775113598</v>
+        <v>1.034607352345048</v>
       </c>
       <c r="N9">
-        <v>1.044895626650332</v>
+        <v>1.03006748923593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036215695154769</v>
+        <v>0.9959817636711575</v>
       </c>
       <c r="D10">
-        <v>1.042800787987931</v>
+        <v>1.016955521925953</v>
       </c>
       <c r="E10">
-        <v>1.040055815003823</v>
+        <v>1.00598510036435</v>
       </c>
       <c r="F10">
-        <v>1.049802671863046</v>
+        <v>1.015326722291695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039127167384224</v>
+        <v>1.042031852434798</v>
       </c>
       <c r="J10">
-        <v>1.042546107887317</v>
+        <v>1.024355719284962</v>
       </c>
       <c r="K10">
-        <v>1.046222262832804</v>
+        <v>1.031025241981024</v>
       </c>
       <c r="L10">
-        <v>1.043486984942126</v>
+        <v>1.020247126331754</v>
       </c>
       <c r="M10">
-        <v>1.053199669284627</v>
+        <v>1.029424654392739</v>
       </c>
       <c r="N10">
-        <v>1.044026642942227</v>
+        <v>1.02581042190159</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035606297329724</v>
+        <v>0.9927876159242566</v>
       </c>
       <c r="D11">
-        <v>1.042326519648274</v>
+        <v>1.014579491221916</v>
       </c>
       <c r="E11">
-        <v>1.039482498491985</v>
+        <v>1.003186703016287</v>
       </c>
       <c r="F11">
-        <v>1.049206649908066</v>
+        <v>1.012431071572213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038976241889744</v>
+        <v>1.04106043893357</v>
       </c>
       <c r="J11">
-        <v>1.042170299129316</v>
+        <v>1.022463547376758</v>
       </c>
       <c r="K11">
-        <v>1.045870327110386</v>
+        <v>1.029231599476419</v>
       </c>
       <c r="L11">
-        <v>1.043036739676363</v>
+        <v>1.018048771972866</v>
       </c>
       <c r="M11">
-        <v>1.052725474914016</v>
+        <v>1.027122303004629</v>
       </c>
       <c r="N11">
-        <v>1.043650300492684</v>
+        <v>1.02391556289224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035380048117596</v>
+        <v>0.991587928551885</v>
       </c>
       <c r="D12">
-        <v>1.042150453397509</v>
+        <v>1.01368806275208</v>
       </c>
       <c r="E12">
-        <v>1.039269714608582</v>
+        <v>1.002136932837292</v>
       </c>
       <c r="F12">
-        <v>1.048985444208391</v>
+        <v>1.011344911368907</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038920016961678</v>
+        <v>1.040694245123536</v>
       </c>
       <c r="J12">
-        <v>1.042030698040169</v>
+        <v>1.021752619020493</v>
       </c>
       <c r="K12">
-        <v>1.045739574834906</v>
+        <v>1.028557637083045</v>
       </c>
       <c r="L12">
-        <v>1.042869550860836</v>
+        <v>1.017223306782638</v>
       </c>
       <c r="M12">
-        <v>1.052549403423109</v>
+        <v>1.026257941258862</v>
       </c>
       <c r="N12">
-        <v>1.043510501153978</v>
+        <v>1.023203624936166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035428574423778</v>
+        <v>0.9918458759365508</v>
       </c>
       <c r="D13">
-        <v>1.042188215741737</v>
+        <v>1.01387968516258</v>
       </c>
       <c r="E13">
-        <v>1.039315349694061</v>
+        <v>1.002362587617132</v>
       </c>
       <c r="F13">
-        <v>1.049032885258032</v>
+        <v>1.011578384142389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038932084833564</v>
+        <v>1.040773041119646</v>
       </c>
       <c r="J13">
-        <v>1.042060643337586</v>
+        <v>1.021905487793388</v>
       </c>
       <c r="K13">
-        <v>1.045767622877239</v>
+        <v>1.028702559421224</v>
       </c>
       <c r="L13">
-        <v>1.042905411042131</v>
+        <v>1.017400781428913</v>
       </c>
       <c r="M13">
-        <v>1.052587168374569</v>
+        <v>1.026443771615677</v>
       </c>
       <c r="N13">
-        <v>1.043540488977152</v>
+        <v>1.023356710800253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035587593283954</v>
+        <v>0.9926887235038708</v>
       </c>
       <c r="D14">
-        <v>1.042311963946733</v>
+        <v>1.014505988752973</v>
       </c>
       <c r="E14">
-        <v>1.039464906204808</v>
+        <v>1.003100142264603</v>
       </c>
       <c r="F14">
-        <v>1.04918836122579</v>
+        <v>1.012341508297234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038971597671708</v>
+        <v>1.041030279913855</v>
       </c>
       <c r="J14">
-        <v>1.042158759837014</v>
+        <v>1.022404949056422</v>
       </c>
       <c r="K14">
-        <v>1.045859519644972</v>
+        <v>1.029176049104147</v>
       </c>
       <c r="L14">
-        <v>1.043022918722337</v>
+        <v>1.017980722757059</v>
       </c>
       <c r="M14">
-        <v>1.052710919447704</v>
+        <v>1.0270510441023</v>
       </c>
       <c r="N14">
-        <v>1.043638744813263</v>
+        <v>1.023856881355569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035685584433254</v>
+        <v>0.9932062545823678</v>
       </c>
       <c r="D15">
-        <v>1.042388222347138</v>
+        <v>1.014890687768216</v>
       </c>
       <c r="E15">
-        <v>1.039557075663026</v>
+        <v>1.003553190750953</v>
       </c>
       <c r="F15">
-        <v>1.049284179448623</v>
+        <v>1.012810275443313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038995921057177</v>
+        <v>1.041188055893222</v>
       </c>
       <c r="J15">
-        <v>1.042219211491113</v>
+        <v>1.022711600204329</v>
       </c>
       <c r="K15">
-        <v>1.045916136640781</v>
+        <v>1.029466747901038</v>
       </c>
       <c r="L15">
-        <v>1.043095326051902</v>
+        <v>1.018336851884477</v>
       </c>
       <c r="M15">
-        <v>1.052787175274998</v>
+        <v>1.027423977114704</v>
       </c>
       <c r="N15">
-        <v>1.043699282315645</v>
+        <v>1.024163967983279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036256154002982</v>
+        <v>0.9961919301160961</v>
       </c>
       <c r="D16">
-        <v>1.042832277295427</v>
+        <v>1.017111991016598</v>
       </c>
       <c r="E16">
-        <v>1.040093888087106</v>
+        <v>1.00616940190786</v>
       </c>
       <c r="F16">
-        <v>1.049842253510154</v>
+        <v>1.015517441563427</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039137160715291</v>
+        <v>1.04209558026099</v>
       </c>
       <c r="J16">
-        <v>1.042571047760305</v>
+        <v>1.02448018218495</v>
       </c>
       <c r="K16">
-        <v>1.046245615707699</v>
+        <v>1.031143215810388</v>
       </c>
       <c r="L16">
-        <v>1.043516873508789</v>
+        <v>1.020391799111846</v>
       </c>
       <c r="M16">
-        <v>1.053231149104597</v>
+        <v>1.029576192170093</v>
       </c>
       <c r="N16">
-        <v>1.044051618232696</v>
+        <v>1.025935061553172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036614248945385</v>
+        <v>0.9980419113841903</v>
       </c>
       <c r="D17">
-        <v>1.043110994505087</v>
+        <v>1.018490004687594</v>
       </c>
       <c r="E17">
-        <v>1.040430920175554</v>
+        <v>1.007792644194561</v>
       </c>
       <c r="F17">
-        <v>1.050192643761945</v>
+        <v>1.017197275863184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039225462907619</v>
+        <v>1.042655495936636</v>
       </c>
       <c r="J17">
-        <v>1.04279172823486</v>
+        <v>1.02557554456666</v>
       </c>
       <c r="K17">
-        <v>1.046452238752638</v>
+        <v>1.032181422275802</v>
       </c>
       <c r="L17">
-        <v>1.043781391031142</v>
+        <v>1.021665405919822</v>
       </c>
       <c r="M17">
-        <v>1.053509757316436</v>
+        <v>1.030910346881886</v>
       </c>
       <c r="N17">
-        <v>1.044272612098836</v>
+        <v>1.027031979475104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036823188398317</v>
+        <v>0.9991129517188818</v>
       </c>
       <c r="D18">
-        <v>1.043273627507065</v>
+        <v>1.019288374016381</v>
       </c>
       <c r="E18">
-        <v>1.040627614313304</v>
+        <v>1.008733186319359</v>
       </c>
       <c r="F18">
-        <v>1.050397137143368</v>
+        <v>1.018170664310357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03927686205098</v>
+        <v>1.042978777860342</v>
       </c>
       <c r="J18">
-        <v>1.042920440919469</v>
+        <v>1.026209512606082</v>
       </c>
       <c r="K18">
-        <v>1.046572739948579</v>
+        <v>1.032782268571411</v>
       </c>
       <c r="L18">
-        <v>1.043935712371921</v>
+        <v>1.022402857284875</v>
       </c>
       <c r="M18">
-        <v>1.053672305854028</v>
+        <v>1.031682950215577</v>
       </c>
       <c r="N18">
-        <v>1.044401507570221</v>
+        <v>1.027666847821859</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036894442975979</v>
+        <v>0.9994768077508359</v>
       </c>
       <c r="D19">
-        <v>1.043329091623932</v>
+        <v>1.019559692883931</v>
       </c>
       <c r="E19">
-        <v>1.040694700378358</v>
+        <v>1.009052838612445</v>
       </c>
       <c r="F19">
-        <v>1.050466883844854</v>
+        <v>1.018501489057379</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03929436982869</v>
+        <v>1.04308845339146</v>
       </c>
       <c r="J19">
-        <v>1.042964327484319</v>
+        <v>1.026424852316876</v>
       </c>
       <c r="K19">
-        <v>1.046613824566931</v>
+        <v>1.03298635050501</v>
       </c>
       <c r="L19">
-        <v>1.043988337478521</v>
+        <v>1.022653401531485</v>
       </c>
       <c r="M19">
-        <v>1.053727737633083</v>
+        <v>1.03194545275464</v>
       </c>
       <c r="N19">
-        <v>1.044445456459028</v>
+        <v>1.027882493339742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036575821629625</v>
+        <v>0.9978442604199321</v>
       </c>
       <c r="D20">
-        <v>1.043081084365797</v>
+        <v>1.01834271855508</v>
       </c>
       <c r="E20">
-        <v>1.040394748534675</v>
+        <v>1.007619137503384</v>
       </c>
       <c r="F20">
-        <v>1.050155038124454</v>
+        <v>1.017017714306345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039215999881322</v>
+        <v>1.042595765761453</v>
       </c>
       <c r="J20">
-        <v>1.04276805197356</v>
+        <v>1.025458535884171</v>
       </c>
       <c r="K20">
-        <v>1.046430071964369</v>
+        <v>1.032070523310941</v>
       </c>
       <c r="L20">
-        <v>1.043753007408628</v>
+        <v>1.021529323663683</v>
       </c>
       <c r="M20">
-        <v>1.05347986103335</v>
+        <v>1.030767785505312</v>
       </c>
       <c r="N20">
-        <v>1.04424890221453</v>
+        <v>1.026914804626865</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035540763195073</v>
+        <v>0.9924408969817274</v>
       </c>
       <c r="D21">
-        <v>1.042275520464023</v>
+        <v>1.014321806070111</v>
       </c>
       <c r="E21">
-        <v>1.039420860796723</v>
+        <v>1.002883239931861</v>
       </c>
       <c r="F21">
-        <v>1.049142572353417</v>
+        <v>1.012117083809948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0389599666616</v>
+        <v>1.040954679309595</v>
       </c>
       <c r="J21">
-        <v>1.042129867213101</v>
+        <v>1.022258096552541</v>
       </c>
       <c r="K21">
-        <v>1.045832459092841</v>
+        <v>1.029036834198061</v>
       </c>
       <c r="L21">
-        <v>1.04298831418522</v>
+        <v>1.017810193563565</v>
       </c>
       <c r="M21">
-        <v>1.052674476024887</v>
+        <v>1.026872474028815</v>
       </c>
       <c r="N21">
-        <v>1.04360981115851</v>
+        <v>1.023709820304289</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034890607877822</v>
+        <v>0.9889666266371925</v>
       </c>
       <c r="D22">
-        <v>1.041769598933639</v>
+        <v>1.011742188624081</v>
       </c>
       <c r="E22">
-        <v>1.038809531301152</v>
+        <v>0.9998456058164734</v>
       </c>
       <c r="F22">
-        <v>1.048507056759879</v>
+        <v>1.008974331978761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038798037068248</v>
+        <v>1.039891701480001</v>
       </c>
       <c r="J22">
-        <v>1.041728563661911</v>
+        <v>1.020198841929582</v>
       </c>
       <c r="K22">
-        <v>1.045456556551681</v>
+        <v>1.0270845650319</v>
       </c>
       <c r="L22">
-        <v>1.042507824531738</v>
+        <v>1.015420121906381</v>
       </c>
       <c r="M22">
-        <v>1.052168477605636</v>
+        <v>1.024370077629525</v>
       </c>
       <c r="N22">
-        <v>1.043207937710247</v>
+        <v>1.021647641303564</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035235207700756</v>
+        <v>0.9908159346016052</v>
       </c>
       <c r="D23">
-        <v>1.042037743130911</v>
+        <v>1.01311471802883</v>
       </c>
       <c r="E23">
-        <v>1.039133514072534</v>
+        <v>1.001461776643244</v>
       </c>
       <c r="F23">
-        <v>1.048843854432909</v>
+        <v>1.010646377813695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038883968997018</v>
+        <v>1.040458228701224</v>
       </c>
       <c r="J23">
-        <v>1.041941306799709</v>
+        <v>1.021295075013468</v>
       </c>
       <c r="K23">
-        <v>1.04565584437437</v>
+        <v>1.028123870154455</v>
       </c>
       <c r="L23">
-        <v>1.042762512032154</v>
+        <v>1.016692189467478</v>
       </c>
       <c r="M23">
-        <v>1.052436680570117</v>
+        <v>1.025701841278537</v>
       </c>
       <c r="N23">
-        <v>1.043420982967703</v>
+        <v>1.02274543116417</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036593185067262</v>
+        <v>0.9979335951257675</v>
       </c>
       <c r="D24">
-        <v>1.043094599278972</v>
+        <v>1.018409287485308</v>
       </c>
       <c r="E24">
-        <v>1.040411092605501</v>
+        <v>1.007697557041069</v>
       </c>
       <c r="F24">
-        <v>1.050172030132985</v>
+        <v>1.017098870279654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039220276143251</v>
+        <v>1.042622765463237</v>
       </c>
       <c r="J24">
-        <v>1.042778750277107</v>
+        <v>1.025511422305868</v>
       </c>
       <c r="K24">
-        <v>1.046440088239199</v>
+        <v>1.032120648347736</v>
       </c>
       <c r="L24">
-        <v>1.043765832644835</v>
+        <v>1.0215908301034</v>
       </c>
       <c r="M24">
-        <v>1.053493369750013</v>
+        <v>1.030832220088637</v>
       </c>
       <c r="N24">
-        <v>1.044259615710895</v>
+        <v>1.026967766153346</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038171734318072</v>
+        <v>1.005880568288724</v>
       </c>
       <c r="D25">
-        <v>1.044323447568319</v>
+        <v>1.02434264245482</v>
       </c>
       <c r="E25">
-        <v>1.041897922759267</v>
+        <v>1.01468950269635</v>
       </c>
       <c r="F25">
-        <v>1.051717875435767</v>
+        <v>1.024335945761752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039606380423832</v>
+        <v>1.045005439856339</v>
       </c>
       <c r="J25">
-        <v>1.043750297989019</v>
+        <v>1.030211635700147</v>
       </c>
       <c r="K25">
-        <v>1.047349428823373</v>
+        <v>1.036574467551264</v>
       </c>
       <c r="L25">
-        <v>1.044931410519958</v>
+        <v>1.027063983846992</v>
       </c>
       <c r="M25">
-        <v>1.054721205528858</v>
+        <v>1.036567868640742</v>
       </c>
       <c r="N25">
-        <v>1.045232543131996</v>
+        <v>1.031674654389767</v>
       </c>
     </row>
   </sheetData>
